--- a/Sprint 1/Package 1/Documentation/P01_JE_01_Genre.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_01_Genre.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>IdGenre</t>
   </si>
@@ -80,9 +75,6 @@
     <t>Visuel novel</t>
   </si>
   <si>
-    <t>Jeu de rôle</t>
-  </si>
-  <si>
     <t>Réflexion</t>
   </si>
   <si>
@@ -92,21 +84,12 @@
     <t>Stratégie</t>
   </si>
   <si>
-    <t>Jeu de rôle d'action</t>
-  </si>
-  <si>
     <t>Hack'n'slash</t>
   </si>
   <si>
     <t>Rogue-like</t>
   </si>
   <si>
-    <t>Jeu de rôle en ligne massivement multijoueur</t>
-  </si>
-  <si>
-    <t>Jeu de rôle tactique</t>
-  </si>
-  <si>
     <t>Labyrinthe</t>
   </si>
   <si>
@@ -153,6 +136,18 @@
   </si>
   <si>
     <t>Survival horror</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>RPG d'action</t>
+  </si>
+  <si>
+    <t>RPG en ligne massivement multijoueur</t>
+  </si>
+  <si>
+    <t>RPG tactique</t>
   </si>
 </sst>
 </file>
@@ -493,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,9 +507,12 @@
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="38.109375" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,16 +525,33 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="str">
+        <f xml:space="preserve"> CONCATENATE(F1&amp;" "&amp;G1)</f>
+        <v>Genre SousGenre</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H47" si="0" xml:space="preserve"> CONCATENATE(F2&amp;" "&amp;G2)</f>
+        <v xml:space="preserve">Action </v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -546,8 +561,18 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Combat</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -557,8 +582,18 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Beat them all</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -568,8 +603,18 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Plates-formes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -579,8 +624,18 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Tir</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,8 +645,18 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Tir en vue subjective</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -601,8 +666,18 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Shoot them up</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -612,8 +687,18 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Rail Shooter</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -623,16 +708,33 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Action Tir en vue objective</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Aventure </v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -642,8 +744,18 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Aventure Fiction interactive</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -653,8 +765,18 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Aventure Aventure graphique</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -664,8 +786,18 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Aventure Simulation de drague</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -675,256 +807,534 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Aventure Visuel novel</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Action-Aventure </v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>Action-Aventure Infiltration</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>Action-Aventure Survival horror</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">RPG </v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>RPG RPG d'action</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>RPG Hack'n'slash</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>RPG Rogue-like</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>RPG RPG en ligne massivement multijoueur</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>RPG RPG tactique</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Réflexion </v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>Réflexion Labyrinthe</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>Réflexion Puzzle</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Simulation </v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation Gestion</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation God Game</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulation Simulateur de véhicule</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Stratégie </v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>Stratégie Stratégie au tour par tour</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>Stratégie Stratégie en temps réel</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>Stratégie Grande stratégie</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>Stratégie 4X</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>Stratégie Wargame</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Sport </v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Course </v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Rythme </v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
